--- a/ExcelFile/KhachHang/Export/a.xlsx
+++ b/ExcelFile/KhachHang/Export/a.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t/>
   </si>
@@ -74,49 +74,22 @@
     <t>0909123457</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>0912452832</t>
-  </si>
-  <si>
-    <t>Nguyen Van</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>0912452834</t>
-  </si>
-  <si>
-    <t>Le Minh</t>
-  </si>
-  <si>
-    <t>Lam Dong</t>
-  </si>
-  <si>
-    <t>0983253415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Quoc Anh </t>
+    <t>Dinh Quoc Linh</t>
+  </si>
+  <si>
+    <t>23 Tran Huy Lieu Tp HCM</t>
+  </si>
+  <si>
+    <t>0998728382</t>
+  </si>
+  <si>
+    <t>Le Quoc Anh</t>
   </si>
   <si>
     <t>234 Tran Quang Dieu Tp HCM</t>
   </si>
   <si>
-    <t>1234567891</t>
-  </si>
-  <si>
-    <t>Dinh Quoc Linh</t>
-  </si>
-  <si>
-    <t>23 Tran Huy Lieu Tp HCM</t>
-  </si>
-  <si>
-    <t>1236595421</t>
+    <t>0998999989</t>
   </si>
 </sst>
 </file>
@@ -161,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -248,7 +221,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -262,7 +235,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -276,48 +249,6 @@
         <v>25</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="D11" t="n" s="0">
         <v>1.0</v>
       </c>
     </row>
